--- a/data/pedagogy_data.xlsx
+++ b/data/pedagogy_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8e1a904a64e38e/Documents/Oregon/Courses/datascience spec/edld_640/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8e1a904a64e38e/Documents/Oregon/Courses/datascience spec/edld_640/EDLD-640-Capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{6BAE1E7B-C09A-4F93-BFB1-1D04A3BB8FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9DE3BF4-D9DF-4461-A1ED-89DE75162D58}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{6BAE1E7B-C09A-4F93-BFB1-1D04A3BB8FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA548DC4-0D8F-4C5F-832B-6604AE988DAB}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21060" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50130" yWindow="-7755" windowWidth="17280" windowHeight="16965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DD.F22" sheetId="1" r:id="rId1"/>
@@ -1782,7 +1782,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1798,6 +1798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,7 +2021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2082,6 +2088,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2428,8 +2436,8 @@
   <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J150" sqref="A150:J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6325,28 +6333,30 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="A150" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="25">
         <v>2</v>
       </c>
-      <c r="E150" s="1">
+      <c r="D150" s="24"/>
+      <c r="E150" s="25">
         <v>8</v>
       </c>
-      <c r="G150" t="s">
+      <c r="F150" s="24"/>
+      <c r="G150" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="J150" s="1">
+      <c r="J150" s="25">
         <v>2</v>
       </c>
     </row>

--- a/data/pedagogy_data.xlsx
+++ b/data/pedagogy_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8e1a904a64e38e/Documents/Oregon/Courses/datascience spec/edld_640/EDLD-640-Capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{6BAE1E7B-C09A-4F93-BFB1-1D04A3BB8FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA548DC4-0D8F-4C5F-832B-6604AE988DAB}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{6BAE1E7B-C09A-4F93-BFB1-1D04A3BB8FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{346B32B5-2BB7-46B1-9E88-5AB2CCA55986}"/>
   <bookViews>
-    <workbookView xWindow="50130" yWindow="-7755" windowWidth="17280" windowHeight="16965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DD.F22" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="569">
   <si>
     <t>IPAddress</t>
   </si>
@@ -1447,15 +1447,6 @@
   </si>
   <si>
     <t>55816</t>
-  </si>
-  <si>
-    <t>This is a magic box, find your power in the box.</t>
-  </si>
-  <si>
-    <t>This toy is going to screem, make it screem.</t>
-  </si>
-  <si>
-    <t>55466</t>
   </si>
   <si>
     <t>This toy has endless potential</t>
@@ -1735,9 +1726,6 @@
   </si>
   <si>
     <t>constrain</t>
-  </si>
-  <si>
-    <t>enhacne</t>
   </si>
   <si>
     <t>fsqueak</t>
@@ -1782,7 +1770,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1798,12 +1786,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,7 +2003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2088,8 +2070,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2433,11 +2413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J150" sqref="A150:J150"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2454,31 +2434,31 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" t="s">
         <v>561</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F1" t="s">
         <v>562</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>564</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J1" t="s">
         <v>563</v>
-      </c>
-      <c r="F1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G1" t="s">
-        <v>567</v>
-      </c>
-      <c r="H1" t="s">
-        <v>571</v>
-      </c>
-      <c r="I1" t="s">
-        <v>572</v>
-      </c>
-      <c r="J1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2495,7 +2475,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -2521,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -2547,7 +2527,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -2573,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
@@ -2599,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -2625,7 +2605,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
@@ -2651,7 +2631,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -2677,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H9" t="s">
         <v>42</v>
@@ -2703,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
@@ -2729,7 +2709,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H11" t="s">
         <v>49</v>
@@ -2755,7 +2735,7 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H12" t="s">
         <v>52</v>
@@ -2778,7 +2758,7 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H13" t="s">
         <v>55</v>
@@ -2804,7 +2784,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
@@ -2830,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2856,7 +2836,7 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H16" t="s">
         <v>64</v>
@@ -2882,7 +2862,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H17" t="s">
         <v>67</v>
@@ -2908,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H18" t="s">
         <v>70</v>
@@ -2934,7 +2914,7 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H19" t="s">
         <v>72</v>
@@ -2960,7 +2940,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H20" t="s">
         <v>75</v>
@@ -2986,7 +2966,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H21" t="s">
         <v>78</v>
@@ -3012,7 +2992,7 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H22" t="s">
         <v>81</v>
@@ -3038,7 +3018,7 @@
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H23" t="s">
         <v>84</v>
@@ -3064,7 +3044,7 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H24" t="s">
         <v>87</v>
@@ -3090,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H25" t="s">
         <v>90</v>
@@ -3116,7 +3096,7 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H26" t="s">
         <v>93</v>
@@ -3142,7 +3122,7 @@
         <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H27" t="s">
         <v>96</v>
@@ -3168,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H28" t="s">
         <v>99</v>
@@ -3194,7 +3174,7 @@
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H29" t="s">
         <v>102</v>
@@ -3220,7 +3200,7 @@
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H30" t="s">
         <v>105</v>
@@ -3246,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H31" t="s">
         <v>108</v>
@@ -3272,7 +3252,7 @@
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H32" t="s">
         <v>111</v>
@@ -3298,7 +3278,7 @@
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H33" t="s">
         <v>114</v>
@@ -3324,7 +3304,7 @@
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H34" t="s">
         <v>117</v>
@@ -3350,7 +3330,7 @@
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H35" t="s">
         <v>120</v>
@@ -3376,7 +3356,7 @@
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H36" t="s">
         <v>123</v>
@@ -3402,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H37" t="s">
         <v>126</v>
@@ -3428,7 +3408,7 @@
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H38" t="s">
         <v>129</v>
@@ -3454,7 +3434,7 @@
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H39" t="s">
         <v>132</v>
@@ -3480,7 +3460,7 @@
         <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H40" t="s">
         <v>135</v>
@@ -3506,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H41" t="s">
         <v>138</v>
@@ -3532,7 +3512,7 @@
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H42" t="s">
         <v>141</v>
@@ -3558,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H43" t="s">
         <v>144</v>
@@ -3584,7 +3564,7 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H44" t="s">
         <v>147</v>
@@ -3610,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H45" t="s">
         <v>150</v>
@@ -3636,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H46" t="s">
         <v>153</v>
@@ -3662,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H47" t="s">
         <v>156</v>
@@ -3688,7 +3668,7 @@
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H48" t="s">
         <v>159</v>
@@ -3714,7 +3694,7 @@
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H49" t="s">
         <v>162</v>
@@ -3740,7 +3720,7 @@
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H50" t="s">
         <v>166</v>
@@ -3766,7 +3746,7 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H51" t="s">
         <v>169</v>
@@ -3792,7 +3772,7 @@
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H52" t="s">
         <v>172</v>
@@ -3818,7 +3798,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H53" t="s">
         <v>175</v>
@@ -3844,7 +3824,7 @@
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H54" t="s">
         <v>178</v>
@@ -3870,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H55" t="s">
         <v>182</v>
@@ -3896,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H56" t="s">
         <v>186</v>
@@ -3922,7 +3902,7 @@
         <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H57" t="s">
         <v>189</v>
@@ -3948,7 +3928,7 @@
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H58" t="s">
         <v>192</v>
@@ -3974,7 +3954,7 @@
         <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H59" t="s">
         <v>195</v>
@@ -4000,7 +3980,7 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H60" t="s">
         <v>198</v>
@@ -4026,7 +4006,7 @@
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H61" t="s">
         <v>201</v>
@@ -4052,7 +4032,7 @@
         <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H62" t="s">
         <v>204</v>
@@ -4078,7 +4058,7 @@
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H63" t="s">
         <v>207</v>
@@ -4104,7 +4084,7 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H64" t="s">
         <v>210</v>
@@ -4130,7 +4110,7 @@
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H65" t="s">
         <v>213</v>
@@ -4156,7 +4136,7 @@
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H66" t="s">
         <v>217</v>
@@ -4182,7 +4162,7 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H67" t="s">
         <v>220</v>
@@ -4208,7 +4188,7 @@
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H68" t="s">
         <v>223</v>
@@ -4234,7 +4214,7 @@
         <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H69" t="s">
         <v>226</v>
@@ -4260,7 +4240,7 @@
         <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H70" t="s">
         <v>229</v>
@@ -4286,7 +4266,7 @@
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H71" t="s">
         <v>232</v>
@@ -4312,7 +4292,7 @@
         <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H72" t="s">
         <v>235</v>
@@ -4341,7 +4321,7 @@
         <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H73" t="s">
         <v>239</v>
@@ -4367,7 +4347,7 @@
         <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H74" t="s">
         <v>242</v>
@@ -4393,7 +4373,7 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H75" t="s">
         <v>245</v>
@@ -4419,7 +4399,7 @@
         <v>16</v>
       </c>
       <c r="G76" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H76" t="s">
         <v>248</v>
@@ -4445,7 +4425,7 @@
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H77" t="s">
         <v>252</v>
@@ -4471,7 +4451,7 @@
         <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H78" t="s">
         <v>255</v>
@@ -4497,7 +4477,7 @@
         <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H79" t="s">
         <v>258</v>
@@ -4523,7 +4503,7 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H80" t="s">
         <v>261</v>
@@ -4549,7 +4529,7 @@
         <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H81" t="s">
         <v>264</v>
@@ -4575,7 +4555,7 @@
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H82" t="s">
         <v>267</v>
@@ -4601,7 +4581,7 @@
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H83" t="s">
         <v>270</v>
@@ -4627,7 +4607,7 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H84" t="s">
         <v>273</v>
@@ -4653,7 +4633,7 @@
         <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H85" t="s">
         <v>276</v>
@@ -4679,7 +4659,7 @@
         <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H86" t="s">
         <v>279</v>
@@ -4705,7 +4685,7 @@
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H87" t="s">
         <v>282</v>
@@ -4731,7 +4711,7 @@
         <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H88" t="s">
         <v>285</v>
@@ -4757,7 +4737,7 @@
         <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H89" t="s">
         <v>288</v>
@@ -4783,7 +4763,7 @@
         <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H90" t="s">
         <v>291</v>
@@ -4809,7 +4789,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H91" t="s">
         <v>294</v>
@@ -4835,7 +4815,7 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H92" t="s">
         <v>298</v>
@@ -4861,7 +4841,7 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H93" t="s">
         <v>301</v>
@@ -4887,7 +4867,7 @@
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H94" t="s">
         <v>303</v>
@@ -4910,7 +4890,7 @@
         <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H95" t="s">
         <v>306</v>
@@ -4936,7 +4916,7 @@
         <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H96" t="s">
         <v>309</v>
@@ -4962,7 +4942,7 @@
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H97" t="s">
         <v>312</v>
@@ -4988,7 +4968,7 @@
         <v>16</v>
       </c>
       <c r="G98" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H98" t="s">
         <v>315</v>
@@ -5014,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H99" t="s">
         <v>318</v>
@@ -5040,7 +5020,7 @@
         <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H100" t="s">
         <v>321</v>
@@ -5069,7 +5049,7 @@
         <v>323</v>
       </c>
       <c r="G101" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H101" t="s">
         <v>325</v>
@@ -5095,7 +5075,7 @@
         <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H102" t="s">
         <v>328</v>
@@ -5121,7 +5101,7 @@
         <v>16</v>
       </c>
       <c r="G103" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H103" t="s">
         <v>331</v>
@@ -5147,7 +5127,7 @@
         <v>16</v>
       </c>
       <c r="G104" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H104" t="s">
         <v>334</v>
@@ -5173,7 +5153,7 @@
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H105" t="s">
         <v>337</v>
@@ -5199,7 +5179,7 @@
         <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H106" t="s">
         <v>340</v>
@@ -5225,7 +5205,7 @@
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H107" t="s">
         <v>343</v>
@@ -5251,7 +5231,7 @@
         <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H108" t="s">
         <v>346</v>
@@ -5277,7 +5257,7 @@
         <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H109" t="s">
         <v>349</v>
@@ -5303,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H110" t="s">
         <v>352</v>
@@ -5329,7 +5309,7 @@
         <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H111" t="s">
         <v>355</v>
@@ -5355,7 +5335,7 @@
         <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H112" t="s">
         <v>358</v>
@@ -5381,7 +5361,7 @@
         <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H113" t="s">
         <v>361</v>
@@ -5407,7 +5387,7 @@
         <v>16</v>
       </c>
       <c r="G114" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H114" t="s">
         <v>364</v>
@@ -5433,7 +5413,7 @@
         <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H115" t="s">
         <v>367</v>
@@ -5459,7 +5439,7 @@
         <v>16</v>
       </c>
       <c r="G116" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H116" t="s">
         <v>370</v>
@@ -5485,7 +5465,7 @@
         <v>16</v>
       </c>
       <c r="G117" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H117" t="s">
         <v>373</v>
@@ -5511,7 +5491,7 @@
         <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H118" t="s">
         <v>376</v>
@@ -5537,7 +5517,7 @@
         <v>16</v>
       </c>
       <c r="G119" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H119" t="s">
         <v>379</v>
@@ -5563,7 +5543,7 @@
         <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H120" t="s">
         <v>383</v>
@@ -5589,7 +5569,7 @@
         <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H121" t="s">
         <v>386</v>
@@ -5615,7 +5595,7 @@
         <v>16</v>
       </c>
       <c r="G122" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H122" t="s">
         <v>390</v>
@@ -5641,7 +5621,7 @@
         <v>16</v>
       </c>
       <c r="G123" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H123" t="s">
         <v>393</v>
@@ -5667,7 +5647,7 @@
         <v>16</v>
       </c>
       <c r="G124" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H124" t="s">
         <v>396</v>
@@ -5693,7 +5673,7 @@
         <v>16</v>
       </c>
       <c r="G125" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H125" t="s">
         <v>400</v>
@@ -5719,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H126" t="s">
         <v>403</v>
@@ -5745,7 +5725,7 @@
         <v>16</v>
       </c>
       <c r="G127" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H127" t="s">
         <v>406</v>
@@ -5771,7 +5751,7 @@
         <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H128" t="s">
         <v>409</v>
@@ -5797,7 +5777,7 @@
         <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H129" t="s">
         <v>412</v>
@@ -5823,7 +5803,7 @@
         <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H130" t="s">
         <v>415</v>
@@ -5849,7 +5829,7 @@
         <v>16</v>
       </c>
       <c r="G131" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H131" t="s">
         <v>418</v>
@@ -5875,7 +5855,7 @@
         <v>16</v>
       </c>
       <c r="G132" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H132" t="s">
         <v>421</v>
@@ -5901,7 +5881,7 @@
         <v>16</v>
       </c>
       <c r="G133" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H133" t="s">
         <v>424</v>
@@ -5927,7 +5907,7 @@
         <v>10</v>
       </c>
       <c r="G134" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H134" t="s">
         <v>427</v>
@@ -5953,7 +5933,7 @@
         <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H135" t="s">
         <v>430</v>
@@ -5979,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H136" t="s">
         <v>433</v>
@@ -6005,7 +5985,7 @@
         <v>10</v>
       </c>
       <c r="G137" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H137" t="s">
         <v>436</v>
@@ -6031,7 +6011,7 @@
         <v>16</v>
       </c>
       <c r="G138" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H138" t="s">
         <v>439</v>
@@ -6057,7 +6037,7 @@
         <v>19</v>
       </c>
       <c r="G139" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H139" t="s">
         <v>442</v>
@@ -6083,7 +6063,7 @@
         <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H140" t="s">
         <v>445</v>
@@ -6109,7 +6089,7 @@
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H141" t="s">
         <v>448</v>
@@ -6135,7 +6115,7 @@
         <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H142" t="s">
         <v>451</v>
@@ -6161,7 +6141,7 @@
         <v>8</v>
       </c>
       <c r="G143" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H143" t="s">
         <v>454</v>
@@ -6187,7 +6167,7 @@
         <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H144" t="s">
         <v>457</v>
@@ -6213,7 +6193,7 @@
         <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H145" t="s">
         <v>460</v>
@@ -6239,7 +6219,7 @@
         <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H146" t="s">
         <v>463</v>
@@ -6265,7 +6245,7 @@
         <v>16</v>
       </c>
       <c r="G147" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H147" t="s">
         <v>466</v>
@@ -6291,7 +6271,7 @@
         <v>16</v>
       </c>
       <c r="G148" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H148" t="s">
         <v>469</v>
@@ -6320,7 +6300,7 @@
         <v>16</v>
       </c>
       <c r="G149" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H149" t="s">
         <v>473</v>
@@ -6333,31 +6313,29 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="24" t="s">
+      <c r="A150" t="s">
         <v>477</v>
       </c>
-      <c r="B150" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C150" s="25">
-        <v>2</v>
-      </c>
-      <c r="D150" s="24"/>
-      <c r="E150" s="25">
-        <v>8</v>
-      </c>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24" t="s">
-        <v>568</v>
-      </c>
-      <c r="H150" s="24" t="s">
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>565</v>
+      </c>
+      <c r="H150" t="s">
         <v>476</v>
       </c>
-      <c r="I150" s="24" t="s">
+      <c r="I150" t="s">
         <v>475</v>
       </c>
-      <c r="J150" s="25">
-        <v>2</v>
+      <c r="J150" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -6371,10 +6349,10 @@
         <v>1</v>
       </c>
       <c r="E151" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G151" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H151" t="s">
         <v>479</v>
@@ -6383,7 +6361,7 @@
         <v>478</v>
       </c>
       <c r="J151" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -6391,7 +6369,7 @@
         <v>483</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -6400,7 +6378,7 @@
         <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H152" t="s">
         <v>482</v>
@@ -6414,19 +6392,19 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>486</v>
+        <v>388</v>
       </c>
       <c r="B153" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" s="1">
         <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H153" t="s">
         <v>485</v>
@@ -6435,30 +6413,30 @@
         <v>484</v>
       </c>
       <c r="J153" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C154" s="1">
         <v>2</v>
       </c>
       <c r="E154" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H154" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I154" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J154" s="1">
         <v>4</v>
@@ -6466,53 +6444,27 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>398</v>
+        <v>490</v>
       </c>
       <c r="B155" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G155" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H155" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I155" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J155" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>493</v>
-      </c>
-      <c r="B156" t="s">
-        <v>26</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1">
-        <v>9</v>
-      </c>
-      <c r="G156" t="s">
-        <v>569</v>
-      </c>
-      <c r="H156" t="s">
-        <v>492</v>
-      </c>
-      <c r="I156" t="s">
-        <v>491</v>
-      </c>
-      <c r="J156" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6533,7 +6485,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -6547,31 +6499,31 @@
     </row>
     <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>503</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -6583,25 +6535,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F3" s="10">
         <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -6613,25 +6565,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="F4" s="15">
-        <v>5</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>512</v>
-      </c>
       <c r="I4" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -6643,25 +6595,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F5" s="15">
         <v>15</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -6673,25 +6625,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F6" s="15">
         <v>15</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -6703,25 +6655,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F7" s="15">
         <v>5</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -6733,25 +6685,25 @@
         <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F8" s="15">
         <v>15</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -6763,25 +6715,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F9" s="15">
         <v>5</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -6793,25 +6745,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F10" s="15">
         <v>15</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -6823,25 +6775,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F11" s="15">
         <v>15</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -6853,25 +6805,25 @@
         <v>10</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F12" s="15">
         <v>15</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -6883,25 +6835,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F13" s="15">
         <v>15</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -6913,25 +6865,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F14" s="15">
         <v>15</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -6943,25 +6895,25 @@
         <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F15" s="15">
         <v>5</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -6973,25 +6925,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F16" s="15">
         <v>5</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -7003,25 +6955,25 @@
         <v>15</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F17" s="15">
         <v>18</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -7033,25 +6985,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F18" s="15">
         <v>6</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -7063,25 +7015,25 @@
         <v>17</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F19" s="15">
         <v>21</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -7096,28 +7048,28 @@
         <v>17</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F20" s="20">
         <v>15</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -7150,15 +7102,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7169,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7177,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7185,7 +7137,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7193,7 +7145,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7201,7 +7153,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7212,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7220,7 +7172,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7228,7 +7180,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7236,7 +7188,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7244,7 +7196,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7252,7 +7204,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7260,7 +7212,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7268,7 +7220,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7276,7 +7228,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7284,7 +7236,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7295,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7303,7 +7255,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7311,7 +7263,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7319,7 +7271,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7327,7 +7279,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7338,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7346,7 +7298,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7354,7 +7306,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7362,7 +7314,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -7370,7 +7322,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -7381,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -7389,7 +7341,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -7397,7 +7349,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -7405,7 +7357,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -7413,7 +7365,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
